--- a/Curso Excel/Intermediário/Aula 1 - Excel/Exercíos Curso Excel.xlsx
+++ b/Curso Excel/Intermediário/Aula 1 - Excel/Exercíos Curso Excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a35ca18e10bcad5f/PUC-PR/Curso Excel/Curso_Kaviski_Excel_Basico_ao_Avancado/Curso Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a35ca18e10bcad5f/PUC-PR/Curso Excel/Curso_Kaviski_Excel_Basico_ao_Avancado/Curso Excel/Intermediário/Aula 1 - Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1504" documentId="13_ncr:1_{41590877-E7EC-4076-84B6-9D2D413330FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2DD558-5912-4178-BD60-F284A2DF09FD}"/>
+  <xr:revisionPtr revIDLastSave="2067" documentId="13_ncr:1_{41590877-E7EC-4076-84B6-9D2D413330FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FD410E-680F-427F-96FC-E7209BDE94AB}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CF8C57AF-AFD4-48BD-88E5-81FC01B49D94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF8C57AF-AFD4-48BD-88E5-81FC01B49D94}"/>
   </bookViews>
   <sheets>
     <sheet name="Intermediário" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Intermediário!$O$4:$O$5</definedName>
@@ -36,7 +37,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Intermediário!$Q$6</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Intermediário!$M$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -97,9 +98,6 @@
     <t>Camisetas</t>
   </si>
   <si>
-    <t>roupas</t>
-  </si>
-  <si>
     <t>loja pode armazenar 100 unidades</t>
   </si>
   <si>
@@ -137,6 +135,9 @@
   </si>
   <si>
     <t>Totais</t>
+  </si>
+  <si>
+    <t>calças</t>
   </si>
 </sst>
 </file>
@@ -160,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -328,11 +329,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -403,27 +419,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,6 +456,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083AB600-A77A-4F5F-8682-C842613CF853}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,25 +777,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="2"/>
       <c r="E2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
       <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="35"/>
+        <v>11</v>
+      </c>
       <c r="M2" s="27"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -797,20 +817,20 @@
         <v>45</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="Q3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="R3" s="32" t="s">
         <v>10</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="S3" s="2"/>
     </row>
@@ -833,20 +853,20 @@
         <v>44607</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="33">
         <v>0</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="33">
         <v>10</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="33">
         <f>P4*O4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="33">
         <v>5</v>
       </c>
       <c r="S4" s="2"/>
@@ -862,20 +882,20 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="36">
+      <c r="N5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="32">
         <v>0</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="32">
         <v>20</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="32">
         <f>P5*O5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="32">
         <v>12</v>
       </c>
       <c r="S5" s="2"/>
@@ -890,22 +910,22 @@
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="36">
+      <c r="N6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="32">
         <f>SUM(O4:O5)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="32">
         <f>SUM(P4:P5)</f>
         <v>30</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="32">
         <f>SUM(Q4:Q5)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="32">
         <f>SUM(R4:R5)</f>
         <v>17</v>
       </c>
@@ -916,16 +936,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="21">
         <v>0.5625</v>
@@ -936,13 +956,13 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="35"/>
+      <c r="N8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -952,18 +972,18 @@
       <c r="H9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="34">
         <f>G8-I8</f>
         <v>0.11458333333333331</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="35"/>
+      <c r="N9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,46 +991,50 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="H10" s="24"/>
-      <c r="I10" s="40">
+      <c r="I10" s="35">
         <f>I9+G8</f>
         <v>0.67708333333333326</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="36">
+      <c r="M11" s="41">
         <f>O4+O5</f>
         <v>0</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="N11" s="40">
+        <v>100</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
-      <c r="M12" s="36">
+      <c r="M12" s="41">
         <f>(R4*O4)+(R5*O5)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="N12" s="40">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,7 +1064,7 @@
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="30">
         <v>44625</v>
@@ -1079,4 +1103,16 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5676CCF8-5246-4D91-9B83-CE3F4FEEB6D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>